--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -12,21 +12,27 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="43" r:id="rId1"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId2"/>
+    <sheet name="TG102E" sheetId="45" r:id="rId1"/>
+    <sheet name="TG102SE" sheetId="44" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="43" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -257,6 +263,30 @@
   <si>
     <t>NCFW, LK</t>
   </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>202203291433851</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Hàn lại khay sim</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,6 +658,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,30 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1012,43 +1054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1093,99 +1135,97 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>55</v>
-      </c>
+      <c r="H5" s="61"/>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,34 +1233,34 @@
         <v>1</v>
       </c>
       <c r="B6" s="54">
-        <v>44774</v>
+        <v>44777</v>
       </c>
       <c r="C6" s="54">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E6" s="38">
-        <v>868926033992394</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>861359036884656</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>68</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
@@ -1230,79 +1270,49 @@
         <v>71</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
-        <v>44774</v>
-      </c>
-      <c r="C7" s="54">
-        <v>44775</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="38">
-        <v>868926033924363</v>
-      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>69</v>
-      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1326,12 +1336,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1355,12 +1365,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1384,12 +1394,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1413,12 +1423,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1442,14 +1452,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1473,12 +1483,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1502,12 +1512,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1532,11 +1542,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1561,11 +1571,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1589,9 +1599,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1643,7 +1653,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="61" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1711,7 +1721,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1743,7 +1753,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1824,7 +1834,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="61" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2020,7 +2030,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2148,7 +2158,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2212,7 +2222,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3302,6 +3312,4680 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44775</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="38">
+        <v>861694031114851</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44774</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868926033992394</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="56"/>
+      <c r="U6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="56"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44774</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44775</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868926033924363</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="56"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54">
+        <v>44777</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44777</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868926033906956</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="56"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="56"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54">
+        <v>44777</v>
+      </c>
+      <c r="C9" s="54">
+        <v>44777</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868926033906774</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="56"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="56"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="56"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="56"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="56"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="56"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="56"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="56"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="56"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="56"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>4</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>4</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>4</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>8</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -3338,43 +8022,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3419,58 +8103,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3495,23 +8179,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,7 +8221,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3568,7 +8252,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3597,7 +8281,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3626,7 +8310,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3655,7 +8339,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3684,7 +8368,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +8397,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3744,7 +8428,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3773,7 +8457,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3802,7 +8486,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +8515,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="45" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Hàn lại khay sim</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -3287,13 +3290,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3305,6 +3301,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5579,6 +5582,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5590,13 +5600,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5607,8 +5610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6050,23 +6053,47 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="54">
+        <v>44781</v>
+      </c>
+      <c r="C10" s="54">
+        <v>44781</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868926033906774</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
       <c r="U10" s="64"/>
@@ -6079,24 +6106,50 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="54">
+        <v>44781</v>
+      </c>
+      <c r="C11" s="54">
+        <v>44781</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="38">
+        <v>864811031268472</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T11" s="56"/>
       <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
@@ -6363,7 +6416,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6427,7 +6480,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6704,7 +6757,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6832,7 +6885,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6864,7 +6917,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6896,7 +6949,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7961,13 +8014,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7979,6 +8025,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9746,6 +9799,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9757,13 +9817,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="45" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.150917</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
   </si>
 </sst>
 </file>
@@ -3318,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3569,7 +3581,9 @@
       <c r="Q6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="63" t="s">
@@ -3584,23 +3598,49 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="54">
+        <v>44785</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44785</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="38">
+        <v>866192037823737</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
       <c r="U7" s="64"/>
@@ -3984,7 +4024,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4453,7 +4493,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4517,7 +4557,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5610,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6127,7 +6167,9 @@
         <v>67</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="L11" s="39" t="s">
         <v>68</v>
       </c>
@@ -6161,23 +6203,47 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44785</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="38">
+        <v>863586032914651</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
       <c r="U12" s="63" t="s">
@@ -6192,12 +6258,20 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>44785</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="38">
+        <v>864811036945876</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -6221,12 +6295,20 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="54">
+        <v>44785</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="38">
+        <v>866192037802079</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="47"/>
       <c r="I14" s="51"/>
       <c r="J14" s="1"/>
@@ -6416,7 +6498,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6853,7 +6935,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -6949,7 +7031,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -9,30 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102E" sheetId="45" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="44" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="43" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
+    <sheet name="TG102E" sheetId="45" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="44" r:id="rId3"/>
+    <sheet name="TG102V" sheetId="43" r:id="rId4"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102E!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -302,6 +305,24 @@
   <si>
     <t>125.212.203.114,16767</t>
   </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>202104011440923</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -685,28 +706,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,6 +729,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1063,2326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183034641923</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>867857039898445</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="64"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="64"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="64"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="64"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="64"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="64"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="64"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="64"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="64"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="64"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>2</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
     <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
@@ -1069,43 +3416,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1150,58 +3497,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -1224,23 +3571,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +3639,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1323,7 +3670,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +3699,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1381,7 +3728,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +3757,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1439,7 +3786,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +3815,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1499,7 +3846,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1528,7 +3875,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +3904,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +3933,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3302,6 +5649,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3313,24 +5667,17 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3363,43 +5710,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3444,58 +5791,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3520,23 +5867,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3586,7 +5933,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3643,7 +5990,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +6019,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +6048,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3730,7 +6077,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3759,7 +6106,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +6135,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3819,7 +6166,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3848,7 +6195,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3877,7 +6224,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +6253,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5622,13 +7969,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5640,18 +7980,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5683,43 +8030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5764,58 +8111,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -5840,23 +8187,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,7 +8257,7 @@
         <v>73</v>
       </c>
       <c r="T6" s="56"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5969,7 +8316,7 @@
         <v>73</v>
       </c>
       <c r="T7" s="56"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6026,7 +8373,7 @@
         <v>73</v>
       </c>
       <c r="T8" s="56"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6083,7 +8430,7 @@
         <v>73</v>
       </c>
       <c r="T9" s="56"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6136,7 +8483,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6193,7 +8540,7 @@
         <v>73</v>
       </c>
       <c r="T11" s="56"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6206,7 +8553,9 @@
       <c r="B12" s="54">
         <v>44785</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44788</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>64</v>
       </c>
@@ -6246,7 +8595,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6261,7 +8610,9 @@
       <c r="B13" s="54">
         <v>44785</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44788</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>64</v>
       </c>
@@ -6273,19 +8624,35 @@
         <v>65</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T13" s="56"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6298,7 +8665,9 @@
       <c r="B14" s="54">
         <v>44785</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44788</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>64</v>
       </c>
@@ -6310,19 +8679,35 @@
         <v>65</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="O14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T14" s="56"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6332,26 +8717,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="38">
+        <v>868345035626092</v>
+      </c>
       <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6361,26 +8772,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C16" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="38">
+        <v>868926033942779</v>
+      </c>
       <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="L16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6390,23 +8827,52 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="38">
+        <v>866192037802079</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="56"/>
       <c r="V17" s="14"/>
@@ -6416,24 +8882,52 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="54">
+        <v>44789</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44789</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="38">
+        <v>864811036945876</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="K18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -6562,7 +9056,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6839,7 +9333,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6967,7 +9461,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7031,7 +9525,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8096,6 +10590,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8107,20 +10608,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -8157,43 +10651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8238,58 +10732,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -8314,23 +10808,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,7 +10850,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8387,7 +10881,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8416,7 +10910,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8445,7 +10939,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8474,7 +10968,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8503,7 +10997,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8532,7 +11026,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8563,7 +11057,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8592,7 +11086,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8621,7 +11115,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8650,7 +11144,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9881,13 +12375,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9899,6 +12386,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module MC60</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1386,23 +1395,49 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="54">
+        <v>44790</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44791</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>867717030423603</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
       <c r="U8" s="74"/>
@@ -1415,12 +1450,20 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="54">
+        <v>44797</v>
+      </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>867717030423603</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
@@ -1444,12 +1487,20 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54">
+        <v>44797</v>
+      </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>202104061330372</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1"/>
@@ -1473,23 +1524,47 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44797</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>867717030471511</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>89</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
       <c r="U11" s="74"/>
@@ -1502,23 +1577,45 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44797</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>867857039898445</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="55" t="s">
+        <v>89</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
       <c r="U12" s="73" t="s">
@@ -1757,7 +1854,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2194,7 +2291,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -2226,7 +2323,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2290,7 +2387,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3383,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3651,15 +3748,27 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54">
+        <v>44797</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>861359036878278</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
@@ -7997,8 +8106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8937,12 +9046,20 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="54">
+        <v>44790</v>
+      </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="38">
+        <v>868926033913648</v>
+      </c>
       <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="51"/>
       <c r="J19" s="1"/>
@@ -8968,12 +9085,20 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="54">
+        <v>44790</v>
+      </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="38">
+        <v>868926033922326</v>
+      </c>
       <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="51"/>
       <c r="J20" s="1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -327,10 +327,16 @@
     <t>LE.2.00.---27.200525</t>
   </si>
   <si>
-    <t>Thiết bị lỗi module MC60</t>
+    <t>125.212.203.114,16565</t>
   </si>
   <si>
-    <t>125.212.203.114,16565</t>
+    <t>E.2.00.---24.200401</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,9 +1471,13 @@
         <v>65</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -1502,9 +1512,13 @@
         <v>65</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
@@ -1540,7 +1554,7 @@
       </c>
       <c r="H11" s="58"/>
       <c r="I11" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>84</v>
@@ -3481,7 +3495,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3717,7 +3731,9 @@
         <v>79</v>
       </c>
       <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="M6" s="39" t="s">
         <v>82</v>
       </c>
@@ -3751,7 +3767,9 @@
       <c r="B7" s="54">
         <v>44797</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44797</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -3765,18 +3783,34 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>97</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
       <c r="U7" s="74"/>
@@ -4192,7 +4226,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4501,7 +4535,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4693,7 +4727,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang8\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -338,12 +338,15 @@
   <si>
     <t>E.2.00.---24.200624</t>
   </si>
+  <si>
+    <t>Sim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +409,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -533,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,6 +736,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,32 +778,47 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1111,43 +1159,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1192,58 +1240,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1266,23 +1314,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1382,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1391,7 +1439,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1446,7 +1494,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1535,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1528,7 +1576,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1581,7 +1629,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1680,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1663,7 +1711,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1692,7 +1740,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +1769,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1750,7 +1798,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3466,13 +3514,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3484,6 +3525,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3527,43 +3575,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3608,58 +3656,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -3682,23 +3730,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,7 +3800,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3813,7 +3861,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +3890,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +3919,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3900,7 +3948,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3929,7 +3977,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +4006,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3989,7 +4037,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4018,7 +4066,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4095,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4076,7 +4124,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5792,13 +5840,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5810,6 +5851,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5853,43 +5901,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5934,58 +5982,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6010,23 +6058,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6076,7 +6124,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6133,7 +6181,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6162,7 +6210,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6191,7 +6239,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6220,7 +6268,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6249,7 +6297,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6278,7 +6326,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6309,7 +6357,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6338,7 +6386,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6367,7 +6415,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6396,7 +6444,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8112,6 +8160,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8123,13 +8178,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8140,8 +8188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G20"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8173,43 +8221,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8254,58 +8302,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8330,77 +8378,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="80">
         <v>44774</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="80">
         <v>44775</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="82">
         <v>868926033992394</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="81"/>
+      <c r="I6" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="84"/>
+      <c r="K6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T6" s="56"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8412,54 +8460,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="80">
         <v>44774</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="80">
         <v>44775</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="82">
         <v>868926033924363</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="84"/>
+      <c r="O7" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T7" s="56"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8469,54 +8517,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="80">
         <v>44777</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="80">
         <v>44777</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="82">
         <v>868926033906956</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="81"/>
+      <c r="G8" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="84"/>
+      <c r="K8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="84"/>
+      <c r="O8" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T8" s="56"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8526,54 +8574,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="80">
         <v>44777</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="80">
         <v>44777</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="82">
         <v>868926033906774</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="81"/>
+      <c r="I9" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="84"/>
+      <c r="O9" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T9" s="56"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8583,50 +8631,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="80">
         <v>44781</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="80">
         <v>44781</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="82">
         <v>868926033906774</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="81"/>
+      <c r="I10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39" t="s">
+      <c r="J10" s="84"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="84"/>
+      <c r="O10" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8636,54 +8684,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="80">
         <v>44781</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="80">
         <v>44781</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="82">
         <v>864811031268472</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="84"/>
+      <c r="K11" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
+      <c r="N11" s="84"/>
+      <c r="O11" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T11" s="56"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8693,52 +8741,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="80">
         <v>44785</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="80">
         <v>44788</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="82">
         <v>863586032914651</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="M12" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="84"/>
+      <c r="O12" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="88"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8750,52 +8798,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="80">
         <v>44785</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="80">
         <v>44788</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="82">
         <v>864811036945876</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="90"/>
+      <c r="I13" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39" t="s">
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="84"/>
+      <c r="O13" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T13" s="56"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8805,52 +8853,52 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="80">
         <v>44785</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="80">
         <v>44788</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="82">
         <v>866192037802079</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51" t="s">
+      <c r="H14" s="90"/>
+      <c r="I14" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39" t="s">
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="84"/>
+      <c r="O14" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T14" s="56"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8860,52 +8908,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="80">
         <v>44789</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="80">
         <v>44789</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="82">
         <v>868345035626092</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="90"/>
+      <c r="G15" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39" t="s">
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="84"/>
+      <c r="O15" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8915,52 +8963,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="80">
         <v>44789</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="80">
         <v>44789</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="82">
         <v>868926033942779</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="90"/>
+      <c r="G16" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51" t="s">
+      <c r="H16" s="81"/>
+      <c r="I16" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39" t="s">
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="84"/>
+      <c r="O16" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8970,50 +9018,50 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="80">
         <v>44789</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="80">
         <v>44789</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="82">
         <v>866192037802079</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51" t="s">
+      <c r="H17" s="84"/>
+      <c r="I17" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="24" t="s">
+      <c r="J17" s="86"/>
+      <c r="K17" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="N17" s="84"/>
+      <c r="O17" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T17" s="13"/>
@@ -9025,50 +9073,50 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="80">
         <v>44789</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="80">
         <v>44789</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="82">
         <v>864811036945876</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51" t="s">
+      <c r="H18" s="84"/>
+      <c r="I18" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="84"/>
+      <c r="K18" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
+      <c r="N18" s="84"/>
+      <c r="O18" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="88" t="s">
         <v>73</v>
       </c>
       <c r="T18" s="13"/>
@@ -9080,32 +9128,32 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="80">
         <v>44790</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="82">
         <v>868926033913648</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -9119,32 +9167,32 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="80">
         <v>44790</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="82">
         <v>868926033922326</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37" t="s">
+      <c r="F20" s="90"/>
+      <c r="G20" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="88"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -9159,24 +9207,34 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
+      <c r="B21" s="80">
+        <v>44803</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="82">
+        <v>866192037824875</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="84"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="88"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
@@ -9191,24 +9249,32 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
+      <c r="B22" s="80">
+        <v>44803</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="82">
+        <v>868926033965416</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="92"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="88"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
         <v>50</v>
@@ -9223,24 +9289,34 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
+      <c r="B23" s="80">
+        <v>44803</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="82">
+        <v>864811037225799</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="92"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="15"/>
@@ -9250,24 +9326,32 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
+      <c r="B24" s="80">
+        <v>44803</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="82">
+        <v>868345035597731</v>
+      </c>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="92"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="15"/>
@@ -9277,24 +9361,24 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="88"/>
       <c r="T25" s="13"/>
       <c r="U25" s="57" t="s">
         <v>46</v>
@@ -9308,24 +9392,24 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="88"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
         <v>26</v>
@@ -10749,13 +10833,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10767,6 +10844,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10810,43 +10894,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10891,58 +10975,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -10967,23 +11051,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11009,7 +11093,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11040,7 +11124,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11069,7 +11153,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11098,7 +11182,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11127,7 +11211,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11156,7 +11240,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11185,7 +11269,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11216,7 +11300,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11245,7 +11329,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11274,7 +11358,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11303,7 +11387,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12534,6 +12618,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12545,13 +12636,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,36 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
   </si>
 </sst>
 </file>
@@ -736,6 +766,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,45 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,43 +1189,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1240,58 +1270,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1314,23 +1344,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1412,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1439,7 +1469,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1494,7 +1524,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1565,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1576,7 +1606,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1659,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1710,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1711,7 +1741,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1770,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1769,7 +1799,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1798,7 +1828,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3575,43 +3605,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3656,58 +3686,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -3730,23 +3760,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3800,7 +3830,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3861,7 +3891,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3890,7 +3920,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3919,7 +3949,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3948,7 +3978,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3977,7 +4007,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4006,7 +4036,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4037,7 +4067,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4066,7 +4096,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4095,7 +4125,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4124,7 +4154,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5901,43 +5931,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5982,58 +6012,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6058,23 +6088,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6124,7 +6154,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6181,7 +6211,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6210,7 +6240,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6239,7 +6269,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6268,7 +6298,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6297,7 +6327,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6326,7 +6356,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6357,7 +6387,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6386,7 +6416,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6415,7 +6445,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6444,7 +6474,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8188,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8221,43 +8251,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8302,58 +8332,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8378,77 +8408,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="65">
         <v>44774</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="65">
         <v>44775</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="67">
         <v>868926033992394</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="83" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="86" t="s">
+      <c r="P6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="84" t="s">
+      <c r="Q6" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="87" t="s">
+      <c r="R6" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="88" t="s">
+      <c r="S6" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T6" s="56"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8460,54 +8490,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="65">
         <v>44774</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="65">
         <v>44775</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="67">
         <v>868926033924363</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="83" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="86" t="s">
+      <c r="P7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="84" t="s">
+      <c r="Q7" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="87" t="s">
+      <c r="R7" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="88" t="s">
+      <c r="S7" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T7" s="56"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8517,54 +8547,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="65">
         <v>44777</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="65">
         <v>44777</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="67">
         <v>868926033906956</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="66"/>
+      <c r="I8" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84" t="s">
+      <c r="N8" s="69"/>
+      <c r="O8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="84" t="s">
+      <c r="Q8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="87" t="s">
+      <c r="R8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="88" t="s">
+      <c r="S8" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T8" s="56"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8574,54 +8604,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="65">
         <v>44777</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="65">
         <v>44777</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="67">
         <v>868926033906774</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="83" t="s">
+      <c r="H9" s="66"/>
+      <c r="I9" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84" t="s">
+      <c r="J9" s="69"/>
+      <c r="K9" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84" t="s">
+      <c r="N9" s="69"/>
+      <c r="O9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="P9" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="Q9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="87" t="s">
+      <c r="R9" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="88" t="s">
+      <c r="S9" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T9" s="56"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8631,50 +8661,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="65">
         <v>44781</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="65">
         <v>44781</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="67">
         <v>868926033906774</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="83" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="86" t="s">
+      <c r="J10" s="69"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84" t="s">
+      <c r="N10" s="69"/>
+      <c r="O10" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="86" t="s">
+      <c r="P10" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="84" t="s">
+      <c r="Q10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="87" t="s">
+      <c r="R10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="88"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8684,54 +8714,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="80">
+      <c r="B11" s="65">
         <v>44781</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="65">
         <v>44781</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="67">
         <v>864811031268472</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="82" t="s">
+      <c r="J11" s="69"/>
+      <c r="K11" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84" t="s">
+      <c r="N11" s="69"/>
+      <c r="O11" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="86" t="s">
+      <c r="P11" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="84" t="s">
+      <c r="Q11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="87" t="s">
+      <c r="R11" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S11" s="88" t="s">
+      <c r="S11" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T11" s="56"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8741,52 +8771,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="65">
         <v>44785</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="65">
         <v>44788</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="67">
         <v>863586032914651</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="81" t="s">
+      <c r="F12" s="75"/>
+      <c r="G12" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="83" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="86" t="s">
+      <c r="K12" s="69"/>
+      <c r="L12" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84" t="s">
+      <c r="N12" s="69"/>
+      <c r="O12" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="86" t="s">
+      <c r="P12" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="84" t="s">
+      <c r="Q12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="87" t="s">
+      <c r="R12" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="S12" s="88"/>
+      <c r="S12" s="73"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8798,52 +8828,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="65">
         <v>44785</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="65">
         <v>44788</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="67">
         <v>864811036945876</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="83" t="s">
+      <c r="H13" s="75"/>
+      <c r="I13" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="86" t="s">
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84" t="s">
+      <c r="N13" s="69"/>
+      <c r="O13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="P13" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="84" t="s">
+      <c r="Q13" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="87" t="s">
+      <c r="R13" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="88" t="s">
+      <c r="S13" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T13" s="56"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8853,52 +8883,52 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="65">
         <v>44785</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="65">
         <v>44788</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="67">
         <v>866192037802079</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="83" t="s">
+      <c r="H14" s="75"/>
+      <c r="I14" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="86" t="s">
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84" t="s">
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="86" t="s">
+      <c r="P14" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="84" t="s">
+      <c r="Q14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="87" t="s">
+      <c r="R14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S14" s="88" t="s">
+      <c r="S14" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T14" s="56"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8908,52 +8938,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="80">
+      <c r="B15" s="65">
         <v>44789</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="65">
         <v>44789</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="67">
         <v>868345035626092</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="81" t="s">
+      <c r="F15" s="75"/>
+      <c r="G15" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="83" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="86" t="s">
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84" t="s">
+      <c r="N15" s="69"/>
+      <c r="O15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="86" t="s">
+      <c r="P15" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S15" s="88" t="s">
+      <c r="S15" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8963,52 +8993,52 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="80">
+      <c r="B16" s="65">
         <v>44789</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="65">
         <v>44789</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="67">
         <v>868926033942779</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="81" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="83" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="86" t="s">
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84" t="s">
+      <c r="N16" s="69"/>
+      <c r="O16" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="86" t="s">
+      <c r="P16" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="84" t="s">
+      <c r="Q16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R16" s="87" t="s">
+      <c r="R16" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="88" t="s">
+      <c r="S16" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9018,50 +9048,50 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="80">
+      <c r="B17" s="65">
         <v>44789</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="65">
         <v>44789</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="67">
         <v>866192037802079</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="83" t="s">
+      <c r="H17" s="69"/>
+      <c r="I17" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="86"/>
-      <c r="K17" s="91" t="s">
+      <c r="J17" s="71"/>
+      <c r="K17" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84" t="s">
+      <c r="N17" s="69"/>
+      <c r="O17" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="84" t="s">
+      <c r="Q17" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="88" t="s">
+      <c r="S17" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T17" s="13"/>
@@ -9073,50 +9103,50 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="65">
         <v>44789</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="65">
         <v>44789</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="67">
         <v>864811036945876</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="84"/>
-      <c r="I18" s="83" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84" t="s">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="86" t="s">
+      <c r="M18" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84" t="s">
+      <c r="N18" s="69"/>
+      <c r="O18" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="86" t="s">
+      <c r="P18" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="84" t="s">
+      <c r="Q18" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="87" t="s">
+      <c r="R18" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="88" t="s">
+      <c r="S18" s="73" t="s">
         <v>73</v>
       </c>
       <c r="T18" s="13"/>
@@ -9128,32 +9158,32 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="80">
+      <c r="B19" s="65">
         <v>44790</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="67">
         <v>868926033913648</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="81" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -9167,32 +9197,32 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="80">
+      <c r="B20" s="65">
         <v>44790</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="67">
         <v>868926033922326</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="88"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="73"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -9207,41 +9237,59 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="80">
+      <c r="B21" s="65">
         <v>44803</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="67">
         <v>866192037824875</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="88"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="73"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -9249,39 +9297,55 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="80">
+      <c r="B22" s="65">
         <v>44803</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="67">
         <v>868926033965416</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="88"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="73"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9289,34 +9353,52 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="80">
+      <c r="B23" s="65">
         <v>44803</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="67">
         <v>864811037225799</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="S23" s="73"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="15"/>
@@ -9326,32 +9408,50 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="80">
+      <c r="B24" s="65">
         <v>44803</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="67">
         <v>868345035597731</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="88"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="73"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="15"/>
@@ -9361,24 +9461,24 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="88"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="73"/>
       <c r="T25" s="13"/>
       <c r="U25" s="57" t="s">
         <v>46</v>
@@ -9392,24 +9492,24 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="88"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="73"/>
       <c r="T26" s="13"/>
       <c r="U26" s="3" t="s">
         <v>26</v>
@@ -9576,7 +9676,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9704,7 +9804,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9768,7 +9868,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10894,43 +10994,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10975,58 +11075,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -11051,23 +11151,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,7 +11193,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11124,7 +11224,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11153,7 +11253,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11182,7 +11282,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11211,7 +11311,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11240,7 +11340,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11269,7 +11369,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11300,7 +11400,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11329,7 +11429,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11358,7 +11458,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11387,7 +11487,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_DPLapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="46" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -727,6 +727,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,30 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,43 +1111,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1192,58 +1192,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1266,23 +1266,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1459,9 @@
       <c r="B9" s="54">
         <v>44797</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44803</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1479,15 +1481,25 @@
         <v>89</v>
       </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1512,9 @@
       <c r="B10" s="54">
         <v>44797</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44803</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1520,15 +1534,25 @@
         <v>89</v>
       </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1565,9 @@
       <c r="B11" s="54">
         <v>44797</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44803</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -1581,7 +1607,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1620,9 @@
       <c r="B12" s="54">
         <v>44797</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44803</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1660,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1663,7 +1691,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1692,7 +1720,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +1749,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1750,7 +1778,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1896,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2337,7 +2365,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2401,7 +2429,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3466,13 +3494,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3484,6 +3505,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3494,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3527,43 +3555,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3608,58 +3636,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -3682,23 +3710,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,7 +3780,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3813,7 +3841,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3842,7 +3870,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +3899,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3900,7 +3928,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3929,7 +3957,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3958,7 +3986,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3989,7 +4017,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4018,7 +4046,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4047,7 +4075,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4076,7 +4104,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5792,13 +5820,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5810,6 +5831,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5821,7 +5849,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="R6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5853,43 +5881,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5934,58 +5962,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6010,23 +6038,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6060,7 +6088,9 @@
         <v>76</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>70</v>
@@ -6069,14 +6099,14 @@
         <v>71</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6133,7 +6163,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6162,7 +6192,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6191,7 +6221,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6220,7 +6250,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6249,7 +6279,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6278,7 +6308,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6309,7 +6339,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6338,7 +6368,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6367,7 +6397,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6396,7 +6426,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6514,7 +6544,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6578,7 +6608,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -8112,6 +8142,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8123,13 +8160,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8140,8 +8170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8173,43 +8203,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8254,58 +8284,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8330,23 +8360,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8373,7 +8403,9 @@
       <c r="I6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="55" t="s">
         <v>66</v>
       </c>
@@ -8400,7 +8432,7 @@
         <v>73</v>
       </c>
       <c r="T6" s="56"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8432,7 +8464,9 @@
       <c r="I7" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="55" t="s">
         <v>66</v>
       </c>
@@ -8459,7 +8493,7 @@
         <v>73</v>
       </c>
       <c r="T7" s="56"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8489,7 +8523,9 @@
       <c r="I8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" s="55" t="s">
         <v>81</v>
       </c>
@@ -8516,7 +8552,7 @@
         <v>73</v>
       </c>
       <c r="T8" s="56"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8546,7 +8582,9 @@
       <c r="I9" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
@@ -8573,7 +8611,7 @@
         <v>73</v>
       </c>
       <c r="T9" s="56"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8603,7 +8641,9 @@
       <c r="I10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39" t="s">
         <v>68</v>
@@ -8626,7 +8666,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8656,7 +8696,9 @@
       <c r="I11" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K11" s="38" t="s">
         <v>66</v>
       </c>
@@ -8683,7 +8725,7 @@
         <v>73</v>
       </c>
       <c r="T11" s="56"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8738,7 +8780,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8770,7 +8812,9 @@
       <c r="I13" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="39" t="s">
         <v>68</v>
@@ -8795,7 +8839,7 @@
         <v>73</v>
       </c>
       <c r="T13" s="56"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8825,7 +8869,9 @@
       <c r="I14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="39" t="s">
         <v>68</v>
@@ -8850,7 +8896,7 @@
         <v>73</v>
       </c>
       <c r="T14" s="56"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8880,7 +8926,9 @@
       <c r="I15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="39" t="s">
         <v>68</v>
@@ -8905,7 +8953,7 @@
         <v>73</v>
       </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8935,7 +8983,9 @@
       <c r="I16" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="39" t="s">
         <v>68</v>
@@ -8960,7 +9010,7 @@
         <v>73</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8990,7 +9040,9 @@
       <c r="I17" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K17" s="24" t="s">
         <v>88</v>
       </c>
@@ -9045,7 +9097,9 @@
       <c r="I18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>90</v>
       </c>
@@ -9083,7 +9137,9 @@
       <c r="B19" s="54">
         <v>44790</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="54">
+        <v>44793</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>64</v>
       </c>
@@ -9095,17 +9151,35 @@
         <v>65</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="L19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="O19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T19" s="13"/>
       <c r="U19" s="57" t="s">
         <v>39</v>
@@ -9122,7 +9196,9 @@
       <c r="B20" s="54">
         <v>44790</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="54">
+        <v>44793</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>64</v>
       </c>
@@ -9134,17 +9210,35 @@
         <v>65</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="L20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="O20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
         <v>17</v>
@@ -9215,7 +9309,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9492,7 +9586,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -9620,7 +9714,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9684,7 +9778,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10749,13 +10843,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10767,6 +10854,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10810,43 +10904,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10891,58 +10985,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -10967,23 +11061,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11009,7 +11103,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11040,7 +11134,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11069,7 +11163,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11098,7 +11192,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11127,7 +11221,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11156,7 +11250,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11185,7 +11279,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11216,7 +11310,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11245,7 +11339,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11274,7 +11368,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11303,7 +11397,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12534,6 +12628,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12545,13 +12646,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
